--- a/GPT_MASB_Room102.xlsx
+++ b/GPT_MASB_Room102.xlsx
@@ -468,312 +468,312 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24001-EE-009</t>
+          <t>22001-ME-009</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-009</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24001-EE-010</t>
+          <t>22001-ME-010</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-010</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-010</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24001-EE-011</t>
+          <t>22001-ME-011</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-011</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-011</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>24001-EE-012</t>
+          <t>22001-ME-012</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24001-EC-009</t>
+          <t>22001-EC-009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-009</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24001-EC-010</t>
+          <t>22001-EC-010</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-010</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-010</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24001-EC-011</t>
+          <t>22001-EC-011</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-011</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-011</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>24001-EC-012</t>
+          <t>22001-EC-012</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-012</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24001-EE-013</t>
+          <t>22001-ME-013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-012</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-013</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24001-EE-014</t>
+          <t>22001-ME-014</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-013</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-014</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24001-EE-015</t>
+          <t>22001-ME-015</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-014</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-015</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24001-EC-013</t>
+          <t>22001-EC-013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-012</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-013</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24001-EC-014</t>
+          <t>22001-EC-014</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-013</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-014</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24001-EC-015</t>
+          <t>22001-EC-015</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-014</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-015</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-015</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24001-EE-016</t>
+          <t>22001-ME-016</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-016</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-017</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24001-EE-017</t>
+          <t>22001-ME-017</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-018</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>24001-EE-018</t>
+          <t>22001-ME-018</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-018</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-015</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24001-EC-016</t>
+          <t>22001-EC-016</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-016</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-017</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24001-EC-017</t>
+          <t>22001-EC-017</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-018</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>24001-EC-018</t>
+          <t>22001-EC-018</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-018</t>
         </is>
       </c>
     </row>
